--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
   <si>
     <t>anchor score</t>
   </si>
@@ -73,160 +73,160 @@
     <t>low</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>offering</t>
@@ -976,10 +976,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.9655172413793104</v>
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1358,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1408,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1458,7 +1458,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1508,7 +1508,7 @@
         <v>383</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1558,7 +1558,7 @@
         <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1587,28 +1587,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1037037037037037</v>
+        <v>0.01414581066376496</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F14">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>121</v>
+        <v>906</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>0.8983050847457628</v>
@@ -1637,28 +1637,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01414581066376496</v>
+        <v>0.01359003397508494</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="E15">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F15">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>906</v>
+        <v>1742</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
         <v>0.889763779527559</v>
@@ -1687,28 +1687,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01359003397508494</v>
+        <v>0.01169134840218239</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>401</v>
+        <v>571</v>
       </c>
       <c r="E16">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F16">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1742</v>
+        <v>2536</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <v>0.8846153846153846</v>
@@ -1737,28 +1737,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01169134840218239</v>
+        <v>0.004601769911504424</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>571</v>
+        <v>389</v>
       </c>
       <c r="E17">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F17">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2536</v>
+        <v>2812</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>0.8823529411764706</v>
@@ -1783,32 +1783,8 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.004601769911504424</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>389</v>
-      </c>
-      <c r="E18">
-        <v>0.97</v>
-      </c>
-      <c r="F18">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2812</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>0.8807339449541285</v>
@@ -1834,7 +1810,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>0.8723404255319149</v>
@@ -1860,7 +1836,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1886,7 +1862,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1912,7 +1888,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>0.85</v>
@@ -1938,7 +1914,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1964,7 +1940,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>0.8245614035087719</v>
@@ -1990,7 +1966,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>0.8012820512820513</v>
@@ -2016,7 +1992,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>0.7936507936507936</v>
@@ -2042,7 +2018,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>0.7916666666666666</v>
@@ -2068,7 +2044,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>0.7777777777777778</v>
@@ -2094,16 +2070,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="L29">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="M29">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="N29">
         <v>0.9399999999999999</v>
@@ -2115,116 +2091,116 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7444444444444445</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L30">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M30">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L31">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M31">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.74</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L32">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.7391304347826086</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>0.7222222222222222</v>
@@ -2250,33 +2226,33 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.7222222222222222</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36">
         <v>0.7073170731707317</v>
@@ -2302,7 +2278,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37">
         <v>0.7058823529411765</v>
@@ -2328,7 +2304,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
         <v>0.7</v>
@@ -2354,7 +2330,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
         <v>0.6956521739130435</v>
@@ -2380,7 +2356,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40">
         <v>0.6818181818181818</v>
@@ -2406,7 +2382,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41">
         <v>0.6785714285714286</v>
@@ -2432,7 +2408,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42">
         <v>0.6521739130434783</v>
@@ -2458,7 +2434,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43">
         <v>0.65</v>
@@ -2484,7 +2460,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44">
         <v>0.64</v>
@@ -2510,28 +2486,28 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.6288343558282209</v>
+        <v>0.625</v>
       </c>
       <c r="L45">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2539,25 +2515,25 @@
         <v>67</v>
       </c>
       <c r="K46">
-        <v>0.625</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2565,25 +2541,25 @@
         <v>68</v>
       </c>
       <c r="K47">
-        <v>0.6188811188811189</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="L47">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="M47">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2591,25 +2567,25 @@
         <v>69</v>
       </c>
       <c r="K48">
-        <v>0.6084656084656085</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L48">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2617,25 +2593,25 @@
         <v>70</v>
       </c>
       <c r="K49">
-        <v>0.6046511627906976</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -5084,7 +5060,7 @@
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K144">
         <v>0.1779141104294479</v>
@@ -5110,7 +5086,7 @@
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K145">
         <v>0.1758206044848879</v>
@@ -5656,7 +5632,7 @@
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K166">
         <v>0.1179422835633626</v>
@@ -5994,7 +5970,7 @@
     </row>
     <row r="179" spans="10:17">
       <c r="J179" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K179">
         <v>0.05130890052356021</v>
